--- a/Web-Fundamentals-Course-Program-Nov-2015.xlsx
+++ b/Web-Fundamentals-Course-Program-Nov-2015.xlsx
@@ -142,26 +142,7 @@
     <t>Kasskata</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Responsive Design. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Bootstrap</t>
-    </r>
+    <t>Responsive Design. Bootstrap</t>
   </si>
   <si>
     <t>Responsive design, media queries, mobile-first. Bootstrap framework.</t>
@@ -381,20 +362,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -477,19 +458,19 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.4493927125506"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -573,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
@@ -601,7 +582,7 @@
         <v>42344</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>2</v>
       </c>
@@ -629,7 +610,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>2</v>
       </c>
@@ -657,58 +638,58 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+    <row r="7" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="8" t="n">
         <v>42342</v>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="8" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E7,"dddd")</f>
         <v>петък</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="14" t="n">
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E7+6</f>
         <v>42348</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+    <row r="8" s="10" customFormat="true" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="8" t="n">
         <v>42345</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="8" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E8,"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="14" t="n">
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E8+6</f>
         <v>42351</v>
       </c>
@@ -724,17 +705,17 @@
       <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="14" t="n">
         <v>42347</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E9,"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="15" t="n">
         <v>42348</v>
       </c>
     </row>
@@ -751,17 +732,17 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="15" t="n">
         <v>42349</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E10,"dddd")</f>
         <v>петък</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14" t="n">
+      <c r="G10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="15" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E10+6</f>
         <v>42355</v>
       </c>
@@ -779,17 +760,17 @@
       <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="15" t="n">
         <v>42352</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E11,"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="14" t="n">
+      <c r="G11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E11+6</f>
         <v>42358</v>
       </c>
@@ -805,17 +786,17 @@
       <c r="D12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="15" t="n">
         <v>42354</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E12,"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -832,17 +813,17 @@
       <c r="D13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="15" t="n">
         <v>42355</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E13,"dddd")</f>
         <v>четвъртък</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="14" t="n">
+      <c r="G13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="15" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E13+6</f>
         <v>42361</v>
       </c>
@@ -851,7 +832,7 @@
       <c r="A14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -860,17 +841,17 @@
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="15" t="n">
         <v>42356</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E14,"dddd")</f>
         <v>петък</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="14" t="n">
+      <c r="G14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15" t="n">
         <f aca="false">'HTML &amp; CSS Course Program'!$E14+6</f>
         <v>42362</v>
       </c>
@@ -886,17 +867,17 @@
       <c r="D15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <v>42359</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E15,"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -911,17 +892,17 @@
       <c r="D16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="15" t="n">
         <v>42361</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E16,"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -938,17 +919,17 @@
       <c r="D17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="15" t="n">
         <v>42372</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E17,"dddd")</f>
         <v>неделя</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -965,17 +946,17 @@
       <c r="D18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="15" t="n">
         <v>42376</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="15" t="str">
         <f aca="false">TEXT('HTML &amp; CSS Course Program'!$E18,"dddd")</f>
         <v>четвъртък</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>12</v>
       </c>
     </row>
